--- a/data/trans_dic/P36$pan-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36$pan-Clase-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7147396823931528</v>
+        <v>0.7154524069327555</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7316526065421479</v>
+        <v>0.7400247381204709</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8634293142053859</v>
+        <v>0.8667074237787721</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6777447112771844</v>
+        <v>0.6723487826384085</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7679766849035108</v>
+        <v>0.7715446916768727</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8720980334328904</v>
+        <v>0.8719430481803963</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7146785134605227</v>
+        <v>0.71438528326928</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.7636530730130866</v>
+        <v>0.7659300936150067</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8793813996185468</v>
+        <v>0.8780872014492268</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7956593612655739</v>
+        <v>0.7949150699699494</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8183204512232926</v>
+        <v>0.8215706599335899</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9247195035639938</v>
+        <v>0.9264226334277157</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7819563531705539</v>
+        <v>0.7750774491622732</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8614678578791911</v>
+        <v>0.866573677206031</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9353534501615356</v>
+        <v>0.9335666428268499</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7758060170849498</v>
+        <v>0.7769511390321153</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8259103802017765</v>
+        <v>0.8264276332105258</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9228821918025314</v>
+        <v>0.9219405074235842</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6968823907175545</v>
+        <v>0.7043587934835637</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8064468749292253</v>
+        <v>0.8060067638840147</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.827555927959296</v>
+        <v>0.8302490686773444</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.706003397977181</v>
+        <v>0.7032519362571604</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7631932047003313</v>
+        <v>0.7589841326688034</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8324058782708779</v>
+        <v>0.8367895356152378</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7145465904477452</v>
+        <v>0.7141128914381442</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8021476475190634</v>
+        <v>0.7987435075343364</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8476859049788609</v>
+        <v>0.8465162250890312</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7936974087580794</v>
+        <v>0.7933873945862361</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8827728435338129</v>
+        <v>0.8815811361137117</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9043159526093142</v>
+        <v>0.9044442567334471</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7928904816792269</v>
+        <v>0.7960974567677664</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8474244264180293</v>
+        <v>0.8533226918953175</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9043486201626426</v>
+        <v>0.9082613250360162</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7833131559080722</v>
+        <v>0.7791243530054749</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8594707760761989</v>
+        <v>0.859682119398963</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8954237522361342</v>
+        <v>0.8963888247786043</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6883559133301359</v>
+        <v>0.6826025964659408</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7704872676447021</v>
+        <v>0.7735179762805863</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.819218722336052</v>
+        <v>0.8239235271776918</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6748185380158814</v>
+        <v>0.6890361903352556</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7900854929188161</v>
+        <v>0.7865167095709078</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.79739722749581</v>
+        <v>0.7985742431940126</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6937665261019972</v>
+        <v>0.6974293793965431</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.7898756978591465</v>
+        <v>0.7893560066766888</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8254201993913124</v>
+        <v>0.8266632168470377</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7646048254194557</v>
+        <v>0.7618398144436895</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8395042219980127</v>
+        <v>0.8405559036420177</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8863768252727183</v>
+        <v>0.8887163144276738</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8138087071410902</v>
+        <v>0.8209624493420528</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.881896119422183</v>
+        <v>0.8795670574134932</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9057079963383055</v>
+        <v>0.9038647490492403</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7623931353501148</v>
+        <v>0.7658496367430285</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8440553650935764</v>
+        <v>0.8438139347047875</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8822133293650615</v>
+        <v>0.8807865411898688</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7521606251896176</v>
+        <v>0.7515479782359646</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7726999440813884</v>
+        <v>0.7693347808245046</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.80126099023074</v>
+        <v>0.8033982579839787</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7379738499995255</v>
+        <v>0.7402858968381276</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7997504533928866</v>
+        <v>0.7995393030806163</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8323604547691563</v>
+        <v>0.8338305458855426</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7526817339574237</v>
+        <v>0.7545905023435205</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.7896961248392009</v>
+        <v>0.7903864242126569</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.822096118844557</v>
+        <v>0.8214587086523785</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7996039702372875</v>
+        <v>0.7985751967124445</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8196896098852489</v>
+        <v>0.8191299495879736</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8463095167904491</v>
+        <v>0.8501150413313078</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8038243885362838</v>
+        <v>0.8045161169979272</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8560323790760657</v>
+        <v>0.8569969433224348</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8796554006541538</v>
+        <v>0.8814138510545427</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7920690823788898</v>
+        <v>0.7930519718612986</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8275392157134041</v>
+        <v>0.8274467980026978</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8558469767656155</v>
+        <v>0.8561871412586924</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7178624393415383</v>
+        <v>0.7113378000189282</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7296682425776742</v>
+        <v>0.7318841449818213</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7695299170595968</v>
+        <v>0.768243937649274</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7658801068015462</v>
+        <v>0.7666293250000427</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7964131869509994</v>
+        <v>0.7973402518673937</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8361639125351893</v>
+        <v>0.8353891460410816</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.759055941830667</v>
+        <v>0.75871682883731</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.7795744574538781</v>
+        <v>0.7808717976289561</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.8136771784489107</v>
+        <v>0.8116733384627397</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8131137568699971</v>
+        <v>0.8037503315986689</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8070313901569548</v>
+        <v>0.8081492822542834</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8325790150200084</v>
+        <v>0.8361223403079195</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8331422124107919</v>
+        <v>0.834552314189609</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8546668714301274</v>
+        <v>0.8539927626263457</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8861219675295154</v>
+        <v>0.8855836498240425</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8120962962332609</v>
+        <v>0.8148349330054071</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8248478374622087</v>
+        <v>0.8268324856844484</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.8553081949920522</v>
+        <v>0.8545664665169102</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7724507785913571</v>
+        <v>0.7713267088614977</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7736564193373591</v>
+        <v>0.7804712697439931</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8335294784285786</v>
+        <v>0.8293049911017693</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.7791796458541638</v>
+        <v>0.7792504855578646</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.816895858895364</v>
+        <v>0.8172466369719403</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.8735494868664758</v>
+        <v>0.8758841861509512</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.7865452592549761</v>
+        <v>0.7839782813187253</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.8163192284857846</v>
+        <v>0.8146776127687846</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.8741663910776939</v>
+        <v>0.8730362533514575</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8605584139891868</v>
+        <v>0.8572920644843605</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8688252887179174</v>
+        <v>0.8705601591968833</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9111958992951101</v>
+        <v>0.908127936122972</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.8247148088852237</v>
+        <v>0.8238025842714477</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.8600603843180319</v>
+        <v>0.8612156654092485</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9130608486750913</v>
+        <v>0.914561091473197</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8247019255039294</v>
+        <v>0.8254928875539111</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.8551215506893476</v>
+        <v>0.8564006464388787</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.9086750984537438</v>
+        <v>0.9076403028148082</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7483591631804638</v>
+        <v>0.7496874035574406</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7873688503735912</v>
+        <v>0.7860397874136884</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8321042544391917</v>
+        <v>0.8319814429084502</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7665544700069556</v>
+        <v>0.7663277813446859</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.8160206453831802</v>
+        <v>0.8161503799557293</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.8654379731055477</v>
+        <v>0.8644210386267636</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.7633218450978047</v>
+        <v>0.7619127875404265</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.805473787800826</v>
+        <v>0.8065663442304052</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.852380578754328</v>
+        <v>0.8533066886370063</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7786857004476812</v>
+        <v>0.7797925513103839</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.814990794051492</v>
+        <v>0.8158702249969894</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8582478543307211</v>
+        <v>0.8580210180263722</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7953930446919528</v>
+        <v>0.7957937002888111</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8413132749153511</v>
+        <v>0.8420336126187528</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.888290316761188</v>
+        <v>0.8867385775842934</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7833802179974196</v>
+        <v>0.7831512731800784</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.8241112372921354</v>
+        <v>0.8259687804783811</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.8705147335636666</v>
+        <v>0.8697112644394097</v>
       </c>
     </row>
     <row r="25">
@@ -1619,31 +1619,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>337985</v>
+        <v>338322</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>319887</v>
+        <v>323547</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>370491</v>
+        <v>371897</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>207851</v>
+        <v>206196</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>240602</v>
+        <v>241720</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>302666</v>
+        <v>302612</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>557134</v>
+        <v>556905</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>573125</v>
+        <v>574834</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>682529</v>
+        <v>681525</v>
       </c>
     </row>
     <row r="7">
@@ -1654,31 +1654,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>376250</v>
+        <v>375898</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>357779</v>
+        <v>359200</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>396790</v>
+        <v>397521</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>239810</v>
+        <v>237701</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>269892</v>
+        <v>271491</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>324619</v>
+        <v>323999</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>604787</v>
+        <v>605679</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>619849</v>
+        <v>620237</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>716292</v>
+        <v>715561</v>
       </c>
     </row>
     <row r="8">
@@ -1763,31 +1763,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>254476</v>
+        <v>257206</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>336102</v>
+        <v>335919</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>312176</v>
+        <v>313192</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>261780</v>
+        <v>260760</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>257968</v>
+        <v>256545</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>308957</v>
+        <v>310584</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>525875</v>
+        <v>525556</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>605445</v>
+        <v>602876</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>634398</v>
+        <v>633523</v>
       </c>
     </row>
     <row r="11">
@@ -1798,31 +1798,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>289830</v>
+        <v>289717</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>367912</v>
+        <v>367416</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>341132</v>
+        <v>341181</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>293997</v>
+        <v>295187</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>286439</v>
+        <v>288432</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>335659</v>
+        <v>337111</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>576484</v>
+        <v>573401</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>648711</v>
+        <v>648871</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>670124</v>
+        <v>670847</v>
       </c>
     </row>
     <row r="12">
@@ -1907,31 +1907,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>371969</v>
+        <v>368860</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>483512</v>
+        <v>485414</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>426658</v>
+        <v>429108</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>113222</v>
+        <v>115608</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>205524</v>
+        <v>204596</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>132466</v>
+        <v>132662</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>491294</v>
+        <v>493888</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>701149</v>
+        <v>700688</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>567009</v>
+        <v>567863</v>
       </c>
     </row>
     <row r="15">
@@ -1942,31 +1942,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>413172</v>
+        <v>411678</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>526823</v>
+        <v>527483</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>461635</v>
+        <v>462853</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>136542</v>
+        <v>137743</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>229407</v>
+        <v>228801</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>150459</v>
+        <v>150153</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>539893</v>
+        <v>542340</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>749243</v>
+        <v>749028</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>606022</v>
+        <v>605042</v>
       </c>
     </row>
     <row r="16">
@@ -2051,31 +2051,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>929889</v>
+        <v>929132</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>894729</v>
+        <v>890832</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>920292</v>
+        <v>922747</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>526404</v>
+        <v>528053</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>611542</v>
+        <v>611381</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>687427</v>
+        <v>688641</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1467429</v>
+        <v>1471150</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1518263</v>
+        <v>1519590</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1623172</v>
+        <v>1621914</v>
       </c>
     </row>
     <row r="19">
@@ -2086,31 +2086,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>988543</v>
+        <v>987271</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>949139</v>
+        <v>948491</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>972033</v>
+        <v>976404</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>573376</v>
+        <v>573869</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>654579</v>
+        <v>655316</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>726486</v>
+        <v>727939</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1544219</v>
+        <v>1546135</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1591019</v>
+        <v>1590842</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1689811</v>
+        <v>1690482</v>
       </c>
     </row>
     <row r="20">
@@ -2195,31 +2195,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>251650</v>
+        <v>249363</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>371897</v>
+        <v>373027</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>476278</v>
+        <v>475482</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>434083</v>
+        <v>434508</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>604120</v>
+        <v>604823</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>617293</v>
+        <v>616721</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>696306</v>
+        <v>695995</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>988680</v>
+        <v>990326</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1104294</v>
+        <v>1101575</v>
       </c>
     </row>
     <row r="23">
@@ -2230,31 +2230,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>285041</v>
+        <v>281759</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>411328</v>
+        <v>411898</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>515301</v>
+        <v>517494</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>472206</v>
+        <v>473005</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>648308</v>
+        <v>647797</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>654174</v>
+        <v>653777</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>744962</v>
+        <v>747474</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1046098</v>
+        <v>1048615</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1160794</v>
+        <v>1159788</v>
       </c>
     </row>
     <row r="24">
@@ -2339,31 +2339,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>230346</v>
+        <v>230010</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>206475</v>
+        <v>208294</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>239344</v>
+        <v>238131</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>973008</v>
+        <v>973097</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>906224</v>
+        <v>906613</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>943333</v>
+        <v>945854</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1216754</v>
+        <v>1212783</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1123445</v>
+        <v>1121186</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1195012</v>
+        <v>1193467</v>
       </c>
     </row>
     <row r="27">
@@ -2374,31 +2374,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>256619</v>
+        <v>255645</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>231874</v>
+        <v>232337</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>261645</v>
+        <v>260764</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1029871</v>
+        <v>1028732</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>954109</v>
+        <v>955390</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>986001</v>
+        <v>987621</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1275781</v>
+        <v>1277004</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1176846</v>
+        <v>1178607</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1242186</v>
+        <v>1240772</v>
       </c>
     </row>
     <row r="28">
@@ -2483,31 +2483,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2442242</v>
+        <v>2446577</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2689658</v>
+        <v>2685118</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2813969</v>
+        <v>2813554</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>2586432</v>
+        <v>2585667</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2891979</v>
+        <v>2892439</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>3053563</v>
+        <v>3049975</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>5066598</v>
+        <v>5057245</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>5606106</v>
+        <v>5613710</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>5890031</v>
+        <v>5896430</v>
       </c>
     </row>
     <row r="31">
@@ -2518,31 +2518,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2541212</v>
+        <v>2544824</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2784015</v>
+        <v>2787019</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2902381</v>
+        <v>2901613</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>2683736</v>
+        <v>2685088</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>2981616</v>
+        <v>2984169</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>3134194</v>
+        <v>3128719</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>5199736</v>
+        <v>5198217</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>5735822</v>
+        <v>5748751</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>6015340</v>
+        <v>6009787</v>
       </c>
     </row>
     <row r="32">
